--- a/Nebraska/WaterAllocation/NE_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nebraska/WaterAllocation/NE_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21622F58-3690-4A4E-A4B2-A1EDFE46E0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6BD7B-9EEB-4C41-B624-2013330BF726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" firstSheet="1" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" firstSheet="1" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -20,9 +20,8 @@
     <sheet name="WaterSources" sheetId="3" r:id="rId5"/>
     <sheet name="Sites" sheetId="5" r:id="rId6"/>
     <sheet name="AllocationsAmounts_fact" sheetId="7" r:id="rId7"/>
-    <sheet name="Misc" sheetId="11" r:id="rId8"/>
-    <sheet name="Code_RightUse" sheetId="13" r:id="rId9"/>
-    <sheet name="Code_WaterDivision" sheetId="14" r:id="rId10"/>
+    <sheet name="Code_RightUse" sheetId="13" r:id="rId8"/>
+    <sheet name="Code_WaterDivision" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="392">
-  <si>
-    <t>AllocationAmount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="395">
   <si>
     <t>Name</t>
   </si>
@@ -314,9 +310,6 @@
     <t>AllocationCropDutyAmount</t>
   </si>
   <si>
-    <t>AllocationMaximum</t>
-  </si>
-  <si>
     <t>PopulationServed</t>
   </si>
   <si>
@@ -779,13 +772,7 @@
     <t>Unspecified</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
     <t>https://nednr.nebraska.gov/IwipApi/swagger/ui/index#/</t>
-  </si>
-  <si>
-    <t>Use above API to retreie data.  We are after surface and groundwater.</t>
   </si>
   <si>
     <t>They don’t include lat or long in the API data. They should send a static file with this info and we will match it ourselves.</t>
@@ -1145,21 +1132,9 @@
     <t>NE_+ counter</t>
   </si>
   <si>
-    <t>Their well data does not have a priority date to it.</t>
-  </si>
-  <si>
-    <t>Their surface water data does not contain lat or long values.</t>
-  </si>
-  <si>
     <t>SourceName</t>
   </si>
   <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>PointOfDiversionID</t>
   </si>
   <si>
@@ -1223,13 +1198,46 @@
     <t>NEDNR</t>
   </si>
   <si>
-    <t>ProGrant</t>
-  </si>
-  <si>
     <t>NEDNR_Water Rights</t>
   </si>
   <si>
     <t>Provide Nebraskas citizens and leaders with the data and analyses they need to make wise resource decisions for the benefit of all Nebraskans both now and in the future.</t>
+  </si>
+  <si>
+    <t>Use above API to retreie surface water data.  Will merge with POD shapefile data vie RightID.</t>
+  </si>
+  <si>
+    <t>Shapefile data with location info from email corespondance.</t>
+  </si>
+  <si>
+    <t>PODorPOUSite</t>
+  </si>
+  <si>
+    <t>POD</t>
+  </si>
+  <si>
+    <t>AllocationFlow_CFS</t>
+  </si>
+  <si>
+    <t>AllocationVolume_AF</t>
+  </si>
+  <si>
+    <t>ExemptOfVolumeFlowPriority</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>CountyName</t>
+  </si>
+  <si>
+    <t>*use ProGrant and Units, use CFS values</t>
+  </si>
+  <si>
+    <t>*use ProGrant and Units, use AF values</t>
+  </si>
+  <si>
+    <t>AllocationFlow_AF</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,11 +1464,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1478,6 +1481,27 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2005,7 +2029,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2229,16 +2253,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2279,6 +2302,30 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2636,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2648,84 +2695,93 @@
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71"/>
+    </row>
+    <row r="4" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B4" s="94" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="71"/>
+      <c r="B5" s="93" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71"/>
+      <c r="B6" s="76"/>
+    </row>
+    <row r="7" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71"/>
+    </row>
+    <row r="8" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71"/>
+      <c r="B9" s="75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71"/>
+      <c r="B10" s="75" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-    </row>
-    <row r="4" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="77" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="75" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-    </row>
-    <row r="6" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="76" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="76" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="76" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="76" t="s">
-        <v>364</v>
-      </c>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="75"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="B13" s="75"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>375</v>
-      </c>
-      <c r="B13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2737,134 +2793,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B83410-C84D-44E9-8D67-10AB82A6E4B2}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="64.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
-        <v>341</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
-        <v>353</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2891,316 +2825,316 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>11</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="70">
         <v>0.5</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>161</v>
+        <v>38</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>159</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3151,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3244,386 +3178,386 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>387</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>379</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="17">
         <v>4</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3574,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3667,354 +3601,354 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="18">
         <v>1</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>355</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>351</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>361</v>
+        <v>38</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>357</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>359</v>
+        <v>38</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>355</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -4061,7 +3995,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4088,274 +4022,274 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>38</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="85" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="85" t="s">
-        <v>365</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>359</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>110</v>
+        <v>20</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>108</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4377,10 +4311,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4407,633 +4341,661 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>362</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>358</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>67</v>
+        <v>391</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
       <c r="J9" s="62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>366</v>
+        <v>55</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>367</v>
+        <v>54</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>385</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>170</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="J17" s="95"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>19</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="18">
+        <v>38</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="18">
         <v>3703994</v>
       </c>
-      <c r="J18" s="62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J19" s="62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>119</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="62" t="s">
-        <v>230</v>
+      <c r="J20" s="63" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>360</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="18" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>161</v>
+        <v>356</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="63" t="s">
-        <v>162</v>
+      <c r="I22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="63" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J26">
-    <sortCondition ref="A5:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J27">
+    <sortCondition ref="A5:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5042,10 +5004,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5072,732 +5034,730 @@
     </row>
     <row r="2" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
       <c r="G3" s="37"/>
       <c r="H3" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="64">
         <v>50004</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="64">
         <v>43</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="64">
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="64">
         <v>39035</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="64">
         <v>63</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="64">
         <v>371091</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>390</v>
+        <v>38</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>381</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>387</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>379</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="64">
+        <v>5363</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>21</v>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="64">
-        <v>5363</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>199</v>
+        <v>38</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>21</v>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="62" t="s">
-        <v>234</v>
+        <v>38</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="J19" s="62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="62" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="18">
+        <v>38</v>
+      </c>
+      <c r="I21" s="18">
         <v>5200</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J21" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="H22" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="99">
+        <v>1</v>
+      </c>
+      <c r="J22" s="100" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J23" s="62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>161</v>
+        <v>38</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>364</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5805,658 +5765,682 @@
         <v>84</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>372</v>
+        <v>38</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J25" s="62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="38" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="21" t="s">
-        <v>373</v>
+        <v>159</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>158</v>
+        <v>38</v>
+      </c>
+      <c r="I27" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="J27" s="62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="38" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="I28" s="67">
+        <v>44196</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="72" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="21"/>
       <c r="H29" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="67">
-        <v>44196</v>
+        <v>43831</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="H30" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="67">
-        <v>43831</v>
+        <v>38</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" s="62" t="s">
-        <v>379</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="97" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="F31" s="64"/>
+      <c r="G31" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="H31" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="99">
+        <v>0</v>
+      </c>
+      <c r="J31" s="100" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="21" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="88" t="s">
-        <v>207</v>
+        <v>38</v>
+      </c>
+      <c r="J32" s="87" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J33" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J34" s="62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J35" s="62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="60">
-        <v>44069</v>
+        <v>43834</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="73"/>
       <c r="H36" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="68">
         <v>43874</v>
       </c>
       <c r="J36" s="62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="69">
         <v>33187</v>
       </c>
       <c r="J37" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="97" t="s">
+        <v>389</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="35">
+        <v>0</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H38" s="98"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="102"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="I39" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="62" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>135</v>
+        <v>38</v>
+      </c>
+      <c r="H40" s="38"/>
+      <c r="I40" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="J40" s="62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="63" t="s">
-        <v>162</v>
+        <v>38</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="62" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J44" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="62" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" s="63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" s="62" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="62" t="s">
-        <v>213</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J45">
-    <sortCondition ref="A14:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
+    <sortCondition ref="A14:A46"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6465,72 +6449,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5DE272-04F8-4611-B79A-B07C0092FE3A}">
-  <dimension ref="E1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1" s="75"/>
-    </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="75"/>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E5" s="75"/>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="75"/>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="75"/>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="75"/>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="75"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FD4F0D-88DE-4C7C-801D-C4FD716AF937}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>252</v>
+      <c r="A1" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>254</v>
+      <c r="A2" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="H2" t="str">
         <f>""""&amp;TRIM(A2)&amp;""""&amp;" : "&amp;""""&amp;TRIM(B2)&amp;""""&amp;","</f>
@@ -6538,11 +6479,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>256</v>
+      <c r="A3" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>252</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H39" si="0">""""&amp;TRIM(A3)&amp;""""&amp;" : "&amp;""""&amp;TRIM(B3)&amp;""""&amp;","</f>
@@ -6550,11 +6491,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>258</v>
+      <c r="A4" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>254</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -6562,11 +6503,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>260</v>
+      <c r="A5" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>256</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -6574,11 +6515,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>262</v>
+      <c r="A6" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>258</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -6586,11 +6527,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>264</v>
+      <c r="A7" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>260</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -6598,11 +6539,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>266</v>
+      <c r="A8" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>262</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -6610,11 +6551,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>268</v>
+      <c r="A9" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>264</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -6622,11 +6563,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>270</v>
+      <c r="A10" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>266</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -6634,11 +6575,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>272</v>
+      <c r="A11" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>268</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -6646,11 +6587,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>274</v>
+      <c r="A12" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>270</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -6658,11 +6599,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>276</v>
+      <c r="A13" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>272</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -6670,11 +6611,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="79" t="s">
-        <v>278</v>
+      <c r="A14" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>274</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -6682,11 +6623,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="79" t="s">
-        <v>280</v>
+      <c r="A15" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>276</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -6694,11 +6635,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" s="79" t="s">
-        <v>282</v>
+      <c r="A16" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>278</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -6706,11 +6647,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>284</v>
+      <c r="A17" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>280</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -6718,11 +6659,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>286</v>
+      <c r="A18" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>282</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -6730,11 +6671,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="79" t="s">
-        <v>288</v>
+      <c r="A19" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>284</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -6742,11 +6683,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="B20" s="79" t="s">
-        <v>290</v>
+      <c r="A20" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>286</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -6754,11 +6695,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="B21" s="79" t="s">
-        <v>292</v>
+      <c r="A21" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>288</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -6766,11 +6707,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="79" t="s">
-        <v>294</v>
+      <c r="A22" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>290</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -6778,11 +6719,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="B23" s="79" t="s">
-        <v>296</v>
+      <c r="A23" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>292</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -6790,11 +6731,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="79" t="s">
-        <v>298</v>
+      <c r="A24" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>294</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -6802,11 +6743,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>300</v>
+      <c r="A25" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>296</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -6814,11 +6755,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="79" t="s">
-        <v>302</v>
+      <c r="A26" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>298</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -6826,11 +6767,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="B27" s="79" t="s">
-        <v>304</v>
+      <c r="A27" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>300</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -6838,11 +6779,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="B28" s="79" t="s">
-        <v>306</v>
+      <c r="A28" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>302</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -6850,11 +6791,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="79" t="s">
-        <v>307</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>308</v>
+      <c r="A29" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>304</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -6862,11 +6803,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="79" t="s">
-        <v>309</v>
-      </c>
-      <c r="B30" s="79" t="s">
-        <v>310</v>
+      <c r="A30" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>306</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -6874,11 +6815,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="B31" s="79" t="s">
-        <v>312</v>
+      <c r="A31" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>308</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -6886,11 +6827,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="79" t="s">
-        <v>313</v>
-      </c>
-      <c r="B32" s="79" t="s">
-        <v>314</v>
+      <c r="A32" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>310</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -6898,11 +6839,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
-        <v>315</v>
-      </c>
-      <c r="B33" s="79" t="s">
-        <v>316</v>
+      <c r="A33" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>312</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -6910,11 +6851,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="79" t="s">
-        <v>317</v>
-      </c>
-      <c r="B34" s="79" t="s">
-        <v>318</v>
+      <c r="A34" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" s="78" t="s">
+        <v>314</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -6922,11 +6863,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
-        <v>319</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>320</v>
+      <c r="A35" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>316</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -6934,11 +6875,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="B36" s="79" t="s">
-        <v>322</v>
+      <c r="A36" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>318</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -6946,11 +6887,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="B37" s="79" t="s">
-        <v>324</v>
+      <c r="A37" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="78" t="s">
+        <v>320</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -6958,11 +6899,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="B38" s="79" t="s">
-        <v>326</v>
+      <c r="A38" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>322</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -6970,15 +6911,137 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="79" t="s">
-        <v>327</v>
-      </c>
-      <c r="B39" s="79" t="s">
-        <v>328</v>
+      <c r="A39" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>324</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>"WT" : "Wetlands",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B83410-C84D-44E9-8D67-10AB82A6E4B2}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="64.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Nebraska/WaterAllocation/NE_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nebraska/WaterAllocation/NE_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6BD7B-9EEB-4C41-B624-2013330BF726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2DDA81-5B7D-4A3D-80FA-44A9E893380A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" firstSheet="1" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="398">
   <si>
     <t>Name</t>
   </si>
@@ -758,9 +758,6 @@
   </si>
   <si>
     <t>State:</t>
-  </si>
-  <si>
-    <t>Organizaitons:</t>
   </si>
   <si>
     <t>Data Links:</t>
@@ -1159,9 +1156,6 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>Do they use water year or calender year?</t>
-  </si>
-  <si>
     <t>01/01</t>
   </si>
   <si>
@@ -1171,9 +1165,6 @@
     <t>This field contains the Type of Application or Water Right of this database entry. examples: Underground Water Claim, Federal Reserved Water Right</t>
   </si>
   <si>
-    <t>Do they have something equilvalent to an allowcation type field?</t>
-  </si>
-  <si>
     <t>RightUse</t>
   </si>
   <si>
@@ -1204,12 +1195,6 @@
     <t>Provide Nebraskas citizens and leaders with the data and analyses they need to make wise resource decisions for the benefit of all Nebraskans both now and in the future.</t>
   </si>
   <si>
-    <t>Use above API to retreie surface water data.  Will merge with POD shapefile data vie RightID.</t>
-  </si>
-  <si>
-    <t>Shapefile data with location info from email corespondance.</t>
-  </si>
-  <si>
     <t>PODorPOUSite</t>
   </si>
   <si>
@@ -1238,6 +1223,30 @@
   </si>
   <si>
     <t>AllocationFlow_AF</t>
+  </si>
+  <si>
+    <t>Do they use water year or calendar year?</t>
+  </si>
+  <si>
+    <t>Do they have something equivalent to an allocation type field?</t>
+  </si>
+  <si>
+    <t>Organizations:</t>
+  </si>
+  <si>
+    <t>Shapefile data with location info from email correspondence.</t>
+  </si>
+  <si>
+    <t>Use above API to retrieve surface water data.  Will merge with POD shapefile data vie RightID.</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2038,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2326,6 +2335,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2686,7 +2698,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2700,15 +2712,15 @@
         <v>238</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -2716,16 +2728,16 @@
     </row>
     <row r="4" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71"/>
       <c r="B5" s="93" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -2737,27 +2749,27 @@
     </row>
     <row r="8" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="B9" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2768,20 +2780,20 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2901,7 +2913,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -2909,7 +2921,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J4" s="62" t="s">
         <v>190</v>
@@ -3041,7 +3053,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3067,7 +3079,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3254,7 +3266,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -3677,7 +3689,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -3709,7 +3721,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -3741,7 +3753,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -3773,7 +3785,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -3805,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -3837,7 +3849,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -3869,7 +3881,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -3901,7 +3913,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -3933,7 +3945,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -4096,7 +4108,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F4" s="82" t="s">
         <v>38</v>
@@ -4222,7 +4234,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
@@ -4413,7 +4425,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -4473,7 +4485,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>38</v>
@@ -4509,7 +4521,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
@@ -4789,7 +4801,7 @@
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4801,7 +4813,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>38</v>
@@ -4811,7 +4823,7 @@
       </c>
       <c r="H17" s="95"/>
       <c r="I17" s="96" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J17" s="95"/>
     </row>
@@ -4827,7 +4839,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>38</v>
@@ -4863,7 +4875,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="18">
@@ -4947,7 +4959,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>38</v>
@@ -5004,10 +5016,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5264,7 +5276,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>38</v>
@@ -5296,7 +5308,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>38</v>
@@ -5328,7 +5340,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>38</v>
@@ -5360,7 +5372,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F12" s="57" t="s">
         <v>38</v>
@@ -5392,7 +5404,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>38</v>
@@ -5668,7 +5680,7 @@
     </row>
     <row r="22" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="97" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>69</v>
@@ -5680,11 +5692,11 @@
         <v>38</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="84" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H22" s="98" t="s">
         <v>38</v>
@@ -5716,7 +5728,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>38</v>
@@ -5748,7 +5760,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>38</v>
@@ -5806,11 +5818,11 @@
         <v>20</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>38</v>
@@ -5868,7 +5880,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="21"/>
@@ -5896,7 +5908,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="72" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="21"/>
@@ -5939,12 +5951,12 @@
         <v>133</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="97" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>69</v>
@@ -5956,11 +5968,11 @@
         <v>38</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F31" s="64"/>
       <c r="G31" s="84" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H31" s="98" t="s">
         <v>38</v>
@@ -5986,11 +5998,11 @@
         <v>38</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>38</v>
@@ -6002,7 +6014,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -6034,7 +6046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>98</v>
       </c>
@@ -6066,7 +6078,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>100</v>
       </c>
@@ -6098,7 +6110,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="51" t="s">
         <v>154</v>
       </c>
@@ -6126,7 +6138,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -6158,12 +6170,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="97" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>18</v>
@@ -6184,7 +6196,7 @@
       <c r="I38" s="101"/>
       <c r="J38" s="102"/>
     </row>
-    <row r="39" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>90</v>
       </c>
@@ -6216,7 +6228,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
@@ -6246,7 +6258,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>99</v>
       </c>
@@ -6278,7 +6290,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -6310,50 +6322,50 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>38</v>
-      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="66" t="s">
-        <v>38</v>
+        <v>396</v>
       </c>
       <c r="J43" s="62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>159</v>
@@ -6367,24 +6379,24 @@
       <c r="H44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="53" t="s">
+      <c r="I44" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="25" t="s">
@@ -6399,25 +6411,25 @@
       <c r="H45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="J45" s="62" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="I45" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>38</v>
+      <c r="D46" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>159</v>
@@ -6431,16 +6443,48 @@
       <c r="H46" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="62" t="s">
+      <c r="J47" s="62" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
-    <sortCondition ref="A14:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
+    <sortCondition ref="A14:A47"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6460,18 +6504,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>247</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>250</v>
       </c>
       <c r="H2" t="str">
         <f>""""&amp;TRIM(A2)&amp;""""&amp;" : "&amp;""""&amp;TRIM(B2)&amp;""""&amp;","</f>
@@ -6480,10 +6524,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>251</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>252</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H39" si="0">""""&amp;TRIM(A3)&amp;""""&amp;" : "&amp;""""&amp;TRIM(B3)&amp;""""&amp;","</f>
@@ -6492,10 +6536,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>253</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>254</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -6504,10 +6548,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>255</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>256</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -6516,10 +6560,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>257</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>258</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -6528,10 +6572,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>259</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>260</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -6540,10 +6584,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>261</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>262</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -6552,10 +6596,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>264</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -6564,10 +6608,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>265</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>266</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -6576,10 +6620,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="78" t="s">
         <v>267</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>268</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -6588,10 +6632,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>269</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>270</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -6600,10 +6644,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>271</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>272</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -6612,10 +6656,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="78" t="s">
         <v>273</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>274</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -6624,10 +6668,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="78" t="s">
         <v>275</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>276</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -6636,10 +6680,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="78" t="s">
         <v>277</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>278</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -6648,10 +6692,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="78" t="s">
         <v>279</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>280</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -6660,10 +6704,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="78" t="s">
         <v>281</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>282</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -6672,10 +6716,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="78" t="s">
         <v>283</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>284</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -6684,10 +6728,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="78" t="s">
         <v>285</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>286</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -6696,10 +6740,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="78" t="s">
         <v>287</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>288</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -6708,10 +6752,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="78" t="s">
         <v>289</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>290</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -6720,10 +6764,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="78" t="s">
         <v>291</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>292</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -6732,10 +6776,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="78" t="s">
         <v>293</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>294</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -6744,10 +6788,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="78" t="s">
         <v>295</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>296</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -6756,10 +6800,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="78" t="s">
         <v>297</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>298</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -6768,10 +6812,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="78" t="s">
         <v>299</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>300</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -6780,10 +6824,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="78" t="s">
         <v>301</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>302</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -6792,10 +6836,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" s="78" t="s">
         <v>303</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>304</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -6804,10 +6848,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" s="78" t="s">
         <v>305</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>306</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -6816,10 +6860,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="78" t="s">
         <v>307</v>
-      </c>
-      <c r="B31" s="78" t="s">
-        <v>308</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -6828,10 +6872,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="B32" s="78" t="s">
         <v>309</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>310</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -6840,10 +6884,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" s="78" t="s">
         <v>311</v>
-      </c>
-      <c r="B33" s="78" t="s">
-        <v>312</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -6852,10 +6896,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" s="78" t="s">
         <v>313</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>314</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -6864,10 +6908,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" s="78" t="s">
         <v>315</v>
-      </c>
-      <c r="B35" s="78" t="s">
-        <v>316</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -6876,10 +6920,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="78" t="s">
         <v>317</v>
-      </c>
-      <c r="B36" s="78" t="s">
-        <v>318</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -6888,10 +6932,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="78" t="s">
         <v>319</v>
-      </c>
-      <c r="B37" s="78" t="s">
-        <v>320</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -6900,10 +6944,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" s="78" t="s">
         <v>321</v>
-      </c>
-      <c r="B38" s="78" t="s">
-        <v>322</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -6912,10 +6956,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" s="78" t="s">
         <v>323</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>324</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -6942,106 +6986,106 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>325</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>327</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>329</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>331</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>333</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>335</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>337</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>339</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>341</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>343</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="78" t="s">
         <v>345</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>347</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>349</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Nebraska/WaterAllocation/NE_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nebraska/WaterAllocation/NE_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2DDA81-5B7D-4A3D-80FA-44A9E893380A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D345564-E9BB-4334-9838-37CFF5F099E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="402">
   <si>
     <t>Name</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -1126,9 +1123,6 @@
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Nebraska</t>
   </si>
   <si>
-    <t>NE_+ counter</t>
-  </si>
-  <si>
     <t>SourceName</t>
   </si>
   <si>
@@ -1183,15 +1177,6 @@
     <t>Nebraska Water Rights</t>
   </si>
   <si>
-    <t>NEDNR_Allocation All</t>
-  </si>
-  <si>
-    <t>NEDNR</t>
-  </si>
-  <si>
-    <t>NEDNR_Water Rights</t>
-  </si>
-  <si>
     <t>Provide Nebraskas citizens and leaders with the data and analyses they need to make wise resource decisions for the benefit of all Nebraskans both now and in the future.</t>
   </si>
   <si>
@@ -1247,6 +1232,33 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>NEwr_WR + counter</t>
+  </si>
+  <si>
+    <t>NEwr_M1</t>
+  </si>
+  <si>
+    <t>NEwr_V1</t>
+  </si>
+  <si>
+    <t>NEwr_O1</t>
+  </si>
+  <si>
+    <t>NEwr_WS_+ counter</t>
+  </si>
+  <si>
+    <t>NEwr_)1</t>
+  </si>
+  <si>
+    <t>NEwr_S_+ counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2050,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2338,6 +2350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2709,18 +2724,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -2728,16 +2743,16 @@
     </row>
     <row r="4" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71"/>
       <c r="B5" s="93" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
@@ -2749,27 +2764,27 @@
     </row>
     <row r="8" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="B9" s="75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,20 +2795,20 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2810,7 +2825,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2852,10 +2867,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2896,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2913,7 +2928,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -2921,10 +2936,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2952,7 +2967,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2969,7 +2984,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -2980,7 +2995,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2997,7 +3012,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3008,7 +3023,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3025,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3033,10 +3048,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3053,7 +3068,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3062,7 +3077,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3079,7 +3094,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3090,7 +3105,7 @@
         <v>142</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3107,7 +3122,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3118,7 +3133,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3146,7 +3161,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3178,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3205,10 +3220,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3249,7 +3264,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3266,7 +3281,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -3281,7 +3296,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3313,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3345,7 +3360,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3377,7 +3392,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3409,7 +3424,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3441,7 +3456,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3473,7 +3488,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3505,7 +3520,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3537,7 +3552,7 @@
         <v>143</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3569,7 +3584,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3601,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3628,10 +3643,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3672,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3689,7 +3704,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -3704,7 +3719,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3721,7 +3736,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -3736,7 +3751,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3753,7 +3768,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -3768,7 +3783,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3785,7 +3800,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -3800,7 +3815,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3817,7 +3832,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -3832,7 +3847,7 @@
         <v>146</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3849,7 +3864,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -3864,7 +3879,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3881,7 +3896,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -3896,7 +3911,7 @@
         <v>147</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3913,7 +3928,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -3928,7 +3943,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3945,7 +3960,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -3960,7 +3975,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -4006,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4049,10 +4064,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4091,7 +4106,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4108,7 +4123,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="F4" s="82" t="s">
         <v>38</v>
@@ -4121,7 +4136,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4138,7 +4153,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>38</v>
@@ -4151,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4168,7 +4183,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>38</v>
@@ -4181,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4211,7 +4226,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4234,14 +4249,14 @@
         <v>38</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4258,7 +4273,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="74" t="s">
         <v>38</v>
@@ -4271,7 +4286,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4301,7 +4316,7 @@
         <v>108</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4325,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4368,10 +4383,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4410,7 +4425,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4425,7 +4440,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -4438,7 +4453,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4455,7 +4470,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -4468,7 +4483,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4485,7 +4500,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>38</v>
@@ -4498,7 +4513,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4521,14 +4536,14 @@
         <v>38</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4558,7 +4573,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4575,7 +4590,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>38</v>
@@ -4586,7 +4601,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
       <c r="J9" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4603,7 +4618,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>38</v>
@@ -4616,7 +4631,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4646,7 +4661,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4663,7 +4678,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>38</v>
@@ -4676,7 +4691,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4706,7 +4721,7 @@
         <v>122</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4736,7 +4751,7 @@
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4753,7 +4768,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>38</v>
@@ -4766,7 +4781,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4783,7 +4798,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>38</v>
@@ -4796,12 +4811,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4813,7 +4828,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>38</v>
@@ -4823,7 +4838,7 @@
       </c>
       <c r="H17" s="95"/>
       <c r="I17" s="96" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J17" s="95"/>
     </row>
@@ -4839,7 +4854,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>38</v>
@@ -4852,7 +4867,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4875,14 +4890,14 @@
         <v>38</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4899,7 +4914,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>38</v>
@@ -4912,7 +4927,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4929,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>38</v>
@@ -4942,7 +4957,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4959,7 +4974,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>38</v>
@@ -4972,7 +4987,7 @@
         <v>140</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4989,7 +5004,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>38</v>
@@ -5002,7 +5017,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5016,10 +5031,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5061,10 +5076,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5099,7 +5114,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -5131,7 +5146,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -5163,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -5195,7 +5210,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -5227,7 +5242,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -5259,56 +5274,46 @@
         <v>371091</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B10" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>378</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>377</v>
+      <c r="C10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>38</v>
@@ -5319,16 +5324,16 @@
       <c r="H10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="65" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
@@ -5340,7 +5345,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>38</v>
@@ -5355,12 +5360,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
@@ -5371,8 +5376,8 @@
       <c r="D12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="90" t="s">
-        <v>376</v>
+      <c r="E12" s="59" t="s">
+        <v>359</v>
       </c>
       <c r="F12" s="57" t="s">
         <v>38</v>
@@ -5387,108 +5392,108 @@
         <v>38</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B14" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="52" t="s">
+      <c r="C14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D15" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="64">
+      <c r="E15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="64">
         <v>5363</v>
       </c>
-      <c r="J14" s="62" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>160</v>
+      <c r="J15" s="62" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
@@ -5500,7 +5505,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>38</v>
@@ -5515,56 +5520,56 @@
         <v>133</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B18" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>38</v>
@@ -5575,19 +5580,19 @@
       <c r="H18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="63" t="s">
-        <v>160</v>
+      <c r="I18" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -5596,30 +5601,30 @@
         <v>38</v>
       </c>
       <c r="E19" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
@@ -5628,7 +5633,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>38</v>
@@ -5639,119 +5644,119 @@
       <c r="H20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="E22" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J21" s="62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="97" t="s">
+      <c r="J22" s="62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="97" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="84" t="s">
-        <v>382</v>
-      </c>
-      <c r="H22" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="99">
+      <c r="F23" s="64"/>
+      <c r="G23" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="99">
         <v>1</v>
       </c>
-      <c r="J22" s="100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="J23" s="100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="61" t="s">
         <v>38</v>
@@ -5760,143 +5765,147 @@
         <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>38</v>
+      <c r="E25" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>361</v>
       </c>
       <c r="H25" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="62" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="J26" s="62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="38" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
+      <c r="C27" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>38</v>
+        <v>363</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="21" t="s">
+        <v>362</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="66" t="s">
-        <v>38</v>
+      <c r="I27" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="J27" s="62" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="38" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="H28" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="67">
-        <v>44196</v>
+      <c r="I28" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>106</v>
@@ -5908,7 +5917,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="72" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="21"/>
@@ -5916,151 +5925,147 @@
         <v>38</v>
       </c>
       <c r="I29" s="67">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="67">
+        <v>43831</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="18" t="s">
+      <c r="E31" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J30" s="62" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
+      <c r="J31" s="62" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="97" t="s">
+        <v>378</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="B31" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="84" t="s">
-        <v>389</v>
-      </c>
-      <c r="H31" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="99">
+      <c r="F32" s="64"/>
+      <c r="G32" s="84" t="s">
+        <v>384</v>
+      </c>
+      <c r="H32" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="99">
         <v>0</v>
       </c>
-      <c r="J31" s="100" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="87" t="s">
-        <v>205</v>
+      <c r="J32" s="100" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>18</v>
+      <c r="C33" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>38</v>
+      <c r="E33" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="H33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>38</v>
@@ -6074,13 +6079,13 @@
       <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J34" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -6092,7 +6097,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="35" t="s">
         <v>38</v>
@@ -6107,130 +6112,130 @@
         <v>133</v>
       </c>
       <c r="J35" s="62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="60">
-        <v>43834</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="68">
+      <c r="C37" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="60">
+        <v>44733</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="68">
         <v>43874</v>
       </c>
-      <c r="J36" s="62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="J37" s="62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="25" t="s">
+      <c r="D38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="69">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="69">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="97" t="s">
-        <v>384</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="C38" s="53" t="s">
+    </row>
+    <row r="39" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="35">
+      <c r="D39" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="35">
         <v>0</v>
       </c>
-      <c r="F38" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="98"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="102"/>
-    </row>
-    <row r="39" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="F39" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="98"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
+    </row>
+    <row r="40" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>69</v>
@@ -6242,7 +6247,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>38</v>
@@ -6250,29 +6255,31 @@
       <c r="G40" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="66" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F41" s="35" t="s">
         <v>38</v>
@@ -6280,31 +6287,29 @@
       <c r="G41" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>133</v>
+      <c r="H41" s="38"/>
+      <c r="I41" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>38</v>
@@ -6315,16 +6320,16 @@
       <c r="H42" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>395</v>
+        <v>96</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6332,159 +6337,191 @@
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="H43" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="J43" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J43" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>38</v>
-      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="66" t="s">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="J44" s="62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E46" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="18" t="s">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="62" t="s">
+      <c r="J48" s="62" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J47" s="62" t="s">
-        <v>211</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:J48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6504,18 +6541,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>246</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>248</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>249</v>
       </c>
       <c r="H2" t="str">
         <f>""""&amp;TRIM(A2)&amp;""""&amp;" : "&amp;""""&amp;TRIM(B2)&amp;""""&amp;","</f>
@@ -6524,10 +6561,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>250</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>251</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H39" si="0">""""&amp;TRIM(A3)&amp;""""&amp;" : "&amp;""""&amp;TRIM(B3)&amp;""""&amp;","</f>
@@ -6536,10 +6573,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>252</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>253</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -6548,10 +6585,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>254</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>255</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -6560,10 +6597,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>256</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>257</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -6572,10 +6609,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>258</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>259</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -6584,10 +6621,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>260</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>261</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -6596,10 +6633,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>262</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>263</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -6608,10 +6645,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>264</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>265</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -6620,10 +6657,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="78" t="s">
         <v>266</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>267</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -6632,10 +6669,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>268</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>269</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -6644,10 +6681,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>270</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>271</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -6656,10 +6693,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="78" t="s">
         <v>272</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>273</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -6668,10 +6705,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="78" t="s">
         <v>274</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>275</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -6680,10 +6717,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="78" t="s">
         <v>276</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>277</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -6692,10 +6729,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="78" t="s">
         <v>278</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>279</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -6704,10 +6741,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="78" t="s">
         <v>280</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>281</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -6716,10 +6753,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="78" t="s">
         <v>282</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>283</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -6728,10 +6765,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="78" t="s">
         <v>284</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>285</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -6740,10 +6777,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="78" t="s">
         <v>286</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>287</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -6752,10 +6789,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" s="78" t="s">
         <v>288</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>289</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -6764,10 +6801,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="78" t="s">
         <v>290</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>291</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -6776,10 +6813,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="78" t="s">
         <v>292</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>293</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -6788,10 +6825,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="78" t="s">
         <v>294</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>295</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -6800,10 +6837,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="78" t="s">
         <v>296</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>297</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -6812,10 +6849,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="78" t="s">
         <v>298</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>299</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -6824,10 +6861,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="78" t="s">
         <v>300</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>301</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -6836,10 +6873,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="78" t="s">
         <v>302</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>303</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -6848,10 +6885,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="78" t="s">
         <v>304</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>305</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -6860,10 +6897,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" s="78" t="s">
         <v>306</v>
-      </c>
-      <c r="B31" s="78" t="s">
-        <v>307</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -6872,10 +6909,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32" s="78" t="s">
         <v>308</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>309</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -6884,10 +6921,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="78" t="s">
         <v>310</v>
-      </c>
-      <c r="B33" s="78" t="s">
-        <v>311</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -6896,10 +6933,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34" s="78" t="s">
         <v>312</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>313</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -6908,10 +6945,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="78" t="s">
         <v>314</v>
-      </c>
-      <c r="B35" s="78" t="s">
-        <v>315</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -6920,10 +6957,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="78" t="s">
         <v>316</v>
-      </c>
-      <c r="B36" s="78" t="s">
-        <v>317</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -6932,10 +6969,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="78" t="s">
         <v>318</v>
-      </c>
-      <c r="B37" s="78" t="s">
-        <v>319</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -6944,10 +6981,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="78" t="s">
         <v>320</v>
-      </c>
-      <c r="B38" s="78" t="s">
-        <v>321</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -6956,10 +6993,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="B39" s="78" t="s">
         <v>322</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>323</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -6986,106 +7023,106 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>324</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>326</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>328</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>330</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>332</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>334</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>336</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>338</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>340</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>342</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="78" t="s">
         <v>344</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>346</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>348</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/Nebraska/WaterAllocation/NE_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nebraska/WaterAllocation/NE_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D345564-E9BB-4334-9838-37CFF5F099E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4031B43-9695-47C8-9C80-DE666903B43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="405">
   <si>
     <t>Name</t>
   </si>
@@ -1171,12 +1171,6 @@
     <t>IDWR_Diversion Tracking</t>
   </si>
   <si>
-    <t>Water rights for Nebraska.</t>
-  </si>
-  <si>
-    <t>Nebraska Water Rights</t>
-  </si>
-  <si>
     <t>Provide Nebraskas citizens and leaders with the data and analyses they need to make wise resource decisions for the benefit of all Nebraskans both now and in the future.</t>
   </si>
   <si>
@@ -1259,6 +1253,21 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>To the fullest extent permissible by applicable law, in no event shall DNR be liable to the user or any other third party for any costs of procurement of substitute goods or services, personal injury, property damage, lost profits, lost revenue, lost data, or any form of indirect, special, incidental, consequential or punitive damages from any causes of action arising out of or related to this agreement and the information, whether arising in tort, contract, strict liability or otherwise, whether even if DNR has been advised of the possibility of such damages.  Nebraska department of natural resources digitized surface water rights may be a geo-referenced interpretation of an approved paper project map and may</t>
+  </si>
+  <si>
+    <t>Nebraska Water Rights Method</t>
+  </si>
+  <si>
+    <t>Use 'RightID' with https://nednr.nebraska.gov/dynamic/WaterRights/WaterRights/SWRDetailPageForPublic?RightId=</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>https://dnr.nebraska.gov/surface-water/ownership-preview-groundwater-wells-and-surface-water-rights</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2059,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2106,19 +2115,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2217,12 +2220,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2271,10 +2268,9 @@
     <xf numFmtId="14" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2285,9 +2281,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2308,9 +2301,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2351,8 +2341,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2718,92 +2708,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="86" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="71"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-    </row>
-    <row r="4" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="93" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="76"/>
-    </row>
-    <row r="7" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-    </row>
-    <row r="8" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="75" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="75" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="75" t="s">
+      <c r="B11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="75"/>
-    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
         <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -2824,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2895,13 +2869,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2910,7 +2884,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2918,27 +2892,27 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>395</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2958,15 +2932,15 @@
       <c r="E5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2983,18 +2957,18 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="66">
         <v>0.5</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3011,18 +2985,18 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="62" t="s">
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="58" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3039,18 +3013,18 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3067,16 +3041,16 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3094,17 +3068,17 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>401</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="58" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3121,18 +3095,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="97" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="58" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3149,18 +3123,18 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="58" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3168,8 +3142,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{CAB38760-5664-497C-A843-56725EBF943A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3248,13 +3225,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3263,7 +3240,7 @@
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3271,22 +3248,22 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>396</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -3295,7 +3272,7 @@
       <c r="I4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3315,10 +3292,10 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -3327,7 +3304,7 @@
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3347,10 +3324,10 @@
       <c r="E6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3359,7 +3336,7 @@
       <c r="I6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3379,10 +3356,10 @@
       <c r="E7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3391,7 +3368,7 @@
       <c r="I7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="58" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3411,10 +3388,10 @@
       <c r="E8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3423,7 +3400,7 @@
       <c r="I8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3443,10 +3420,10 @@
       <c r="E9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3455,7 +3432,7 @@
       <c r="I9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3475,10 +3452,10 @@
       <c r="E10" s="17">
         <v>4</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3487,7 +3464,7 @@
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="58" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3507,10 +3484,10 @@
       <c r="E11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3519,7 +3496,7 @@
       <c r="I11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="58" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3539,10 +3516,10 @@
       <c r="E12" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3551,7 +3528,7 @@
       <c r="I12" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="58" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3571,10 +3548,10 @@
       <c r="E13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -3583,7 +3560,7 @@
       <c r="I13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="58" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3671,13 +3648,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3686,7 +3663,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3694,22 +3671,22 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -3718,7 +3695,7 @@
       <c r="I4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3735,13 +3712,13 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -3750,7 +3727,7 @@
       <c r="I5" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3770,10 +3747,10 @@
       <c r="E6" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3782,7 +3759,7 @@
       <c r="I6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3799,13 +3776,13 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3814,7 +3791,7 @@
       <c r="I7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="58" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3834,10 +3811,10 @@
       <c r="E8" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3846,7 +3823,7 @@
       <c r="I8" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3866,10 +3843,10 @@
       <c r="E9" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3878,7 +3855,7 @@
       <c r="I9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3896,12 +3873,12 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3910,7 +3887,7 @@
       <c r="I10" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="58" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3927,13 +3904,13 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3942,7 +3919,7 @@
       <c r="I11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="58" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3962,10 +3939,10 @@
       <c r="E12" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3974,7 +3951,7 @@
       <c r="I12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="58" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4092,20 +4069,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4113,29 +4090,29 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4152,20 +4129,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="62" t="s">
+      <c r="F5" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="58" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4182,20 +4159,20 @@
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="62" t="s">
+      <c r="F6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="58" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4212,20 +4189,20 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="58" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4242,20 +4219,20 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="84" t="s">
+      <c r="E8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="78" t="s">
         <v>356</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4272,20 +4249,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="F9" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4302,20 +4279,20 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="F10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="58" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4340,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4411,20 +4388,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4432,27 +4409,27 @@
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>400</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4469,20 +4446,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4499,20 +4476,20 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="F6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4529,20 +4506,20 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="63" t="s">
+      <c r="E7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="59" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4562,17 +4539,17 @@
       <c r="E8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4589,18 +4566,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4617,20 +4594,20 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="62" t="s">
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="58" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4647,20 +4624,20 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="63" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="59" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4677,20 +4654,20 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="63" t="s">
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="59" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4707,20 +4684,20 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="E13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="58" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4737,20 +4714,20 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="E14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="58" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4767,20 +4744,20 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="62" t="s">
+      <c r="F15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="58" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4797,26 +4774,26 @@
       <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="62" t="s">
+      <c r="F16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="58" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4827,20 +4804,20 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="96" t="s">
-        <v>376</v>
-      </c>
-      <c r="J17" s="95"/>
+      <c r="E17" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89" t="s">
+        <v>374</v>
+      </c>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -4853,20 +4830,20 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="19"/>
+      <c r="F18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="58" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4883,20 +4860,20 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="26" t="s">
+      <c r="E19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="58" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4913,20 +4890,20 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="F20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="59" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4943,20 +4920,20 @@
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="19"/>
+      <c r="F21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="58" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4973,20 +4950,20 @@
       <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="19"/>
+      <c r="F22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="58" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5003,20 +4980,20 @@
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="63" t="s">
+      <c r="F23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="59" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5033,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5091,243 +5068,243 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="64">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="60">
         <v>50004</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="64">
+      <c r="E4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="60">
         <v>43</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="64">
+      <c r="E5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="60">
         <v>1</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="64">
+      <c r="E6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="60">
         <v>39035</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="64">
+      <c r="E7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="60">
         <v>63</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="64">
+      <c r="E8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="60">
         <v>371091</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="82" t="s">
         <v>393</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="104" t="s">
-        <v>394</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="62"/>
-    </row>
-    <row r="10" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>395</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="62" t="s">
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="58" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5341,25 +5318,25 @@
       <c r="C11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="62" t="s">
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="58" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5373,25 +5350,25 @@
       <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="F12" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="62" t="s">
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="58" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5405,25 +5382,25 @@
       <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="90" t="s">
-        <v>396</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="62" t="s">
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="58" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5431,67 +5408,67 @@
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="62" t="s">
+      <c r="F14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="58" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+    <row r="15" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="64">
+      <c r="F15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="60">
         <v>5363</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="58" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -5504,26 +5481,26 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="39" t="s">
+      <c r="F16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -5536,54 +5513,54 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="39" t="s">
+      <c r="F17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+    <row r="18" spans="1:10" s="36" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="64" t="s">
+      <c r="F18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="58" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5600,22 +5577,22 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="39" t="s">
+      <c r="F19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="59" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5632,26 +5609,26 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="39" t="s">
+      <c r="F20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="58" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -5664,22 +5641,22 @@
       <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="63" t="s">
+      <c r="F21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="59" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5696,52 +5673,52 @@
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="39" t="s">
+      <c r="F22" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="58" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="97" t="s">
-        <v>377</v>
-      </c>
-      <c r="B23" s="52" t="s">
+    <row r="23" spans="1:10" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="90" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="84" t="s">
-        <v>377</v>
-      </c>
-      <c r="H23" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="99">
+      <c r="D23" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="60"/>
+      <c r="G23" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="92">
         <v>1</v>
       </c>
-      <c r="J23" s="100" t="s">
+      <c r="J23" s="93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5758,22 +5735,22 @@
       <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="21" t="s">
+      <c r="E24" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="58" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5790,22 +5767,22 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="21" t="s">
+      <c r="E25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="62" t="s">
+      <c r="J25" s="58" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5822,22 +5799,22 @@
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="39" t="s">
+      <c r="F26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="62" t="s">
+      <c r="J26" s="58" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5848,30 +5825,30 @@
       <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="21" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="58" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="38" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="36" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
@@ -5884,22 +5861,22 @@
       <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="62" t="s">
+      <c r="F28" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="58" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5916,18 +5893,18 @@
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="67">
+      <c r="F29" s="33"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="63">
         <v>44196</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="58" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5944,18 +5921,18 @@
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="67">
+      <c r="F30" s="33"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="63">
         <v>43831</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="58" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5972,52 +5949,52 @@
       <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="39" t="s">
+      <c r="F31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="58" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="97" t="s">
-        <v>378</v>
-      </c>
-      <c r="B32" s="52" t="s">
+    <row r="32" spans="1:10" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="90" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="84" t="s">
-        <v>384</v>
-      </c>
-      <c r="H32" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="99">
+      <c r="D32" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="H32" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="92">
         <v>0</v>
       </c>
-      <c r="J32" s="100" t="s">
+      <c r="J32" s="93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6028,26 +6005,26 @@
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="33"/>
+      <c r="G33" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="H33" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="87" t="s">
+      <c r="H33" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="81" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6064,22 +6041,22 @@
       <c r="D34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="39" t="s">
+      <c r="F34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="63" t="s">
+      <c r="J34" s="59" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6096,26 +6073,26 @@
       <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="39" t="s">
+      <c r="F35" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="62" t="s">
+      <c r="J35" s="58" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="49" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>100</v>
       </c>
@@ -6128,50 +6105,50 @@
       <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="39" t="s">
+      <c r="F36" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="62" t="s">
+      <c r="J36" s="58" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="60">
+      <c r="C37" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="56">
         <v>44733</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="68">
+      <c r="F37" s="33"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="64">
         <v>43874</v>
       </c>
-      <c r="J37" s="62" t="s">
+      <c r="J37" s="58" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6188,50 +6165,50 @@
       <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="69">
+      <c r="F38" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="65">
         <v>33187</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="J38" s="59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="97" t="s">
-        <v>379</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="C39" s="53" t="s">
+    <row r="39" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="90" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="35">
+      <c r="D39" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="33">
         <v>0</v>
       </c>
-      <c r="F39" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="98"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="F39" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="91"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="95"/>
     </row>
     <row r="40" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -6246,22 +6223,22 @@
       <c r="D40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="62" t="s">
+      <c r="F40" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="58" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6278,20 +6255,20 @@
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="62" t="s">
+      <c r="F41" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="36"/>
+      <c r="I41" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="58" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6308,22 +6285,22 @@
       <c r="D42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="39" t="s">
+      <c r="F42" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="62" t="s">
+      <c r="J42" s="58" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6340,28 +6317,28 @@
       <c r="D43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="63" t="s">
+      <c r="F43" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6374,15 +6351,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="J44" s="62" t="s">
-        <v>392</v>
+      <c r="G44" s="96"/>
+      <c r="H44" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" s="58" t="s">
+        <v>390</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6404,26 +6381,26 @@
       <c r="D45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F45" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="62" t="s">
+      <c r="F45" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="58" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>102</v>
       </c>
@@ -6436,58 +6413,58 @@
       <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="39" t="s">
+      <c r="F46" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J46" s="59" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="B47" s="52" t="s">
+      <c r="A47" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="64" t="s">
+      <c r="F47" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="62" t="s">
+      <c r="J47" s="58" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>97</v>
       </c>
@@ -6500,22 +6477,22 @@
       <c r="D48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="39" t="s">
+      <c r="E48" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="H48" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="62" t="s">
+      <c r="J48" s="58" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6540,18 +6517,18 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="72" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="73" t="s">
         <v>248</v>
       </c>
       <c r="H2" t="str">
@@ -6560,10 +6537,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="73" t="s">
         <v>250</v>
       </c>
       <c r="H3" t="str">
@@ -6572,10 +6549,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="73" t="s">
         <v>252</v>
       </c>
       <c r="H4" t="str">
@@ -6584,10 +6561,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="73" t="s">
         <v>254</v>
       </c>
       <c r="H5" t="str">
@@ -6596,10 +6573,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>256</v>
       </c>
       <c r="H6" t="str">
@@ -6608,10 +6585,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="73" t="s">
         <v>258</v>
       </c>
       <c r="H7" t="str">
@@ -6620,10 +6597,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="73" t="s">
         <v>260</v>
       </c>
       <c r="H8" t="str">
@@ -6632,10 +6609,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>262</v>
       </c>
       <c r="H9" t="str">
@@ -6644,10 +6621,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="73" t="s">
         <v>264</v>
       </c>
       <c r="H10" t="str">
@@ -6656,10 +6633,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="73" t="s">
         <v>266</v>
       </c>
       <c r="H11" t="str">
@@ -6668,10 +6645,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="73" t="s">
         <v>268</v>
       </c>
       <c r="H12" t="str">
@@ -6680,10 +6657,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="73" t="s">
         <v>270</v>
       </c>
       <c r="H13" t="str">
@@ -6692,10 +6669,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="73" t="s">
         <v>272</v>
       </c>
       <c r="H14" t="str">
@@ -6704,10 +6681,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="73" t="s">
         <v>274</v>
       </c>
       <c r="H15" t="str">
@@ -6716,10 +6693,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="73" t="s">
         <v>276</v>
       </c>
       <c r="H16" t="str">
@@ -6728,10 +6705,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="73" t="s">
         <v>278</v>
       </c>
       <c r="H17" t="str">
@@ -6740,10 +6717,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="73" t="s">
         <v>280</v>
       </c>
       <c r="H18" t="str">
@@ -6752,10 +6729,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="73" t="s">
         <v>282</v>
       </c>
       <c r="H19" t="str">
@@ -6764,10 +6741,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="73" t="s">
         <v>284</v>
       </c>
       <c r="H20" t="str">
@@ -6776,10 +6753,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="73" t="s">
         <v>286</v>
       </c>
       <c r="H21" t="str">
@@ -6788,10 +6765,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="73" t="s">
         <v>288</v>
       </c>
       <c r="H22" t="str">
@@ -6800,10 +6777,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="73" t="s">
         <v>290</v>
       </c>
       <c r="H23" t="str">
@@ -6812,10 +6789,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="73" t="s">
         <v>292</v>
       </c>
       <c r="H24" t="str">
@@ -6824,10 +6801,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="73" t="s">
         <v>294</v>
       </c>
       <c r="H25" t="str">
@@ -6836,10 +6813,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="73" t="s">
         <v>296</v>
       </c>
       <c r="H26" t="str">
@@ -6848,10 +6825,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="73" t="s">
         <v>298</v>
       </c>
       <c r="H27" t="str">
@@ -6860,10 +6837,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="73" t="s">
         <v>300</v>
       </c>
       <c r="H28" t="str">
@@ -6872,10 +6849,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="73" t="s">
         <v>302</v>
       </c>
       <c r="H29" t="str">
@@ -6884,10 +6861,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="73" t="s">
         <v>304</v>
       </c>
       <c r="H30" t="str">
@@ -6896,10 +6873,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="73" t="s">
         <v>306</v>
       </c>
       <c r="H31" t="str">
@@ -6908,10 +6885,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="73" t="s">
         <v>308</v>
       </c>
       <c r="H32" t="str">
@@ -6920,10 +6897,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="73" t="s">
         <v>310</v>
       </c>
       <c r="H33" t="str">
@@ -6932,10 +6909,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="73" t="s">
         <v>312</v>
       </c>
       <c r="H34" t="str">
@@ -6944,10 +6921,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="73" t="s">
         <v>314</v>
       </c>
       <c r="H35" t="str">
@@ -6956,10 +6933,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="73" t="s">
         <v>316</v>
       </c>
       <c r="H36" t="str">
@@ -6968,10 +6945,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="73" t="s">
         <v>318</v>
       </c>
       <c r="H37" t="str">
@@ -6980,10 +6957,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="73" t="s">
         <v>320</v>
       </c>
       <c r="H38" t="str">
@@ -6992,10 +6969,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="73" t="s">
         <v>322</v>
       </c>
       <c r="H39" t="str">
@@ -7022,106 +6999,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="72" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="73" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="73" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="73" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="73" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="73" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="73" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="73" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="73" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="73" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="73" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="73" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="73" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="73" t="s">
         <v>343</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="73" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="73" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="73" t="s">
         <v>348</v>
       </c>
     </row>
